--- a/Data_File.xlsx
+++ b/Data_File.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s1834797_ed_ac_uk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shize\Documents\GitHub\FullMarksforSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC13E2B-A3AE-44AE-976C-BA0F44C92EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_File" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -836,14 +837,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GS4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>0.33912799999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>3.3126199999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>10.311400000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3269,6 +3272,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A6BC2A66027A242905D704D686D308C" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e995d822cba2643a0b09de85b87ce1d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ac7cbf7e9ab60bd308999b4fb5b41ae">
     <xsd:element name="properties">
@@ -3382,15 +3394,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3398,6 +3401,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{650D453E-86EC-4407-9CE6-0E422CE178CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DADA5D0F-6569-4DDA-A32E-60BBD9534F62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3409,14 +3420,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{650D453E-86EC-4407-9CE6-0E422CE178CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
